--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_37.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_37.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>58229.45849602154</v>
+        <v>11474726.83674214</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58229.45849602154</v>
+        <v>11474726.83674214</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>4995.743802915714</v>
+        <v>700332.2091612851</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4995.743802915714</v>
+        <v>700332.2091612851</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1266947546.945015</v>
+        <v>52871056.82525475</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>11613.72606867941</v>
+        <v>1323325.22379684</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>21413.99410618252</v>
+        <v>2362311.28207123</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>31215.08616326561</v>
+        <v>3401297.340345622</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>41059.57144987778</v>
+        <v>4430912.858610457</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>50907.7253601735</v>
+        <v>5471913.663670677</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>60736.76077866684</v>
+        <v>6510899.721945067</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>70565.56215918878</v>
+        <v>7549885.780219453</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>80394.70902433518</v>
+        <v>8588871.838493839</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>90282.99888019745</v>
+        <v>9572224.34922195</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>100226.8703529874</v>
+        <v>10622047.25750336</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>110058.319073523</v>
+        <v>11661277.31244901</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>119887.3544920166</v>
+        <v>12700263.3707234</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>129716.3899105097</v>
+        <v>13739249.4289978</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>139698.9182363039</v>
+        <v>14707454.417962</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>150356.513588642</v>
+        <v>15604334.15016063</v>
       </c>
     </row>
   </sheetData>
@@ -27037,13 +27037,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E2" t="n">
         <v>380</v>
@@ -27058,7 +27058,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J2" t="n">
         <v>338.0000000001434</v>
@@ -27089,49 +27089,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
     </row>
     <row r="4">
@@ -27144,13 +27144,13 @@
         <v>421</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
